--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126250.1028205569</v>
+        <v>119325.1792249779</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14051634.27896189</v>
+        <v>14051634.27896188</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12348828.71284415</v>
+        <v>12348828.71284416</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5686325.498300715</v>
+        <v>5686325.498300714</v>
       </c>
     </row>
     <row r="11">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>215.3236495658965</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>135.6268595587068</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>132.6551205385437</v>
@@ -749,7 +749,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>89.15988499041418</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>57.11049760307122</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -806,7 +806,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>44.63645777470678</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>169.2103782980058</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>343.6465684039911</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>115.7281862028015</v>
@@ -986,16 +986,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>66.64173408217438</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>159.6908732144031</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>29.06736062834963</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -1113,16 +1113,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>113.2912155414032</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>35.84715600543174</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F8" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="G8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>123.6621491913814</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>115.7281862028015</v>
@@ -1226,13 +1226,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>12.61408491376205</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -1277,10 +1277,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>85.10982080664728</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="10">
@@ -1293,25 +1293,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.07643038288657</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>271.0640515220193</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>123.6621491913813</v>
       </c>
       <c r="G11" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>89.89083853279845</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
@@ -1505,7 +1505,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3773027531635</v>
+        <v>12.61408491376182</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -1514,10 +1514,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>16.95232370435914</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>102.2989794293492</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,14 +1609,14 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>379.8866644877579</v>
+      </c>
+      <c r="E14" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>89.15668158090618</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>115.7281862028015</v>
@@ -1700,13 +1700,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>70.03974083464111</v>
+        <v>28.81119389749502</v>
       </c>
       <c r="I15" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U15" t="n">
-        <v>15.82856859811467</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>207.7501450163307</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -1903,16 +1903,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y17" t="n">
-        <v>313.3687246458798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>15.09023863101106</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T18" t="n">
-        <v>157.7484451748619</v>
+        <v>154.1114030234442</v>
       </c>
       <c r="U18" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>211.1008365810345</v>
@@ -1991,7 +1991,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>120.9929327919254</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>55.69551283691957</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>123.6621491913813</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G20" t="n">
-        <v>384.3252913328839</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>54.89441676184251</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>17.94222193238882</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>54.29350408687493</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -2301,10 +2301,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>35.6930965424892</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>100.0791888769552</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>54.87973519537619</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>20.01122713432968</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>343.6465684039911</v>
       </c>
       <c r="C26" t="n">
         <v>390.1527797502169</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>343.6465684039911</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H27" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
-        <v>17.66596186741218</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
-        <v>174.5627220424961</v>
+        <v>17.94222193238882</v>
       </c>
       <c r="Y27" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2724,10 +2724,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>106.9706214097036</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>57.46091455696531</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>7.537471181140739</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>115.9008527225317</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -2970,7 +2970,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>25.50695334350349</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>69.61575517978508</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>343.646568403991</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>390.1527797502169</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>122.2618999602331</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3110,10 +3110,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6551205385437</v>
+        <v>40.8352493827204</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>119.2878878475953</v>
@@ -3125,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T33" t="n">
         <v>157.7484451748619</v>
@@ -3167,7 +3167,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V33" t="n">
-        <v>20.35561786450261</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
         <v>211.1008365810345</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>65.42520756919177</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -3252,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>5.569312247320562</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>206.583426245711</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>91.05980095625272</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>106.9101097868343</v>
+        <v>3.066183145785692</v>
       </c>
       <c r="T36" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V36" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
         <v>174.5627220424961</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -3435,16 +3435,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>139.6853556414405</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G38" t="n">
         <v>390.1527797502169</v>
@@ -3556,22 +3556,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>125.396777664673</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>355.6112787713165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E39" t="n">
         <v>119.2878878475953</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>38.26205473744033</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>74.64600104530005</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3739,73 +3739,73 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>307.7994123985592</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>219.9844192126098</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>346.3391791168841</v>
+      </c>
+      <c r="W41" t="n">
+        <v>249.8291171763718</v>
+      </c>
+      <c r="X41" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="F41" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>343.6465684039911</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>107.8702810193205</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>106.9101097868343</v>
+        <v>6.374829710813255</v>
       </c>
       <c r="T42" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U42" t="n">
-        <v>126.6742602997035</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
         <v>174.5627220424961</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>43.73227063629167</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>22.55063026834896</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>132.491981854267</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>82.31733398323249</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>97.31817639439133</v>
       </c>
       <c r="C45" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>105.9202115588047</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>126.6742602997035</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -4191,7 +4191,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214528</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.7130725968584</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C2" t="n">
-        <v>953.7130725968584</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D2" t="n">
-        <v>953.7130725968584</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E2" t="n">
-        <v>953.7130725968584</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F2" t="n">
-        <v>736.2144366717104</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G2" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H2" t="n">
         <v>31.21222238001735</v>
@@ -4330,52 +4330,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J2" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K2" t="n">
-        <v>31.21222238001735</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="L2" t="n">
-        <v>31.21222238001735</v>
+        <v>812.642214563296</v>
       </c>
       <c r="M2" t="n">
-        <v>417.4634743327321</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="N2" t="n">
-        <v>466.9476083001462</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="O2" t="n">
-        <v>853.1988602528609</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="P2" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q2" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R2" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S2" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T2" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U2" t="n">
-        <v>1303.550627260378</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V2" t="n">
-        <v>953.7130725968584</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="W2" t="n">
-        <v>953.7130725968584</v>
+        <v>562.302767136506</v>
       </c>
       <c r="X2" t="n">
-        <v>953.7130725968584</v>
+        <v>168.209050217095</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.7130725968584</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>402.5972674193512</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="C3" t="n">
-        <v>268.6021961682969</v>
+        <v>358.6626860576042</v>
       </c>
       <c r="D3" t="n">
-        <v>151.7050383876894</v>
+        <v>241.7655282769966</v>
       </c>
       <c r="E3" t="n">
-        <v>31.21222238001735</v>
+        <v>121.2727122693246</v>
       </c>
       <c r="F3" t="n">
         <v>31.21222238001735</v>
@@ -4409,16 +4409,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J3" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K3" t="n">
-        <v>31.21222238001735</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="L3" t="n">
-        <v>31.21222238001735</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4634743327321</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N3" t="n">
         <v>794.9558830015396</v>
@@ -4436,25 +4436,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S3" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T3" t="n">
-        <v>1502.923747684634</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U3" t="n">
-        <v>1305.572936822853</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V3" t="n">
-        <v>1091.861409815886</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W3" t="n">
-        <v>878.6282415522151</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X3" t="n">
-        <v>702.3022596911078</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y3" t="n">
-        <v>542.9003000549378</v>
+        <v>492.6577573086585</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1120.546072681154</v>
+        <v>76.29955346557975</v>
       </c>
       <c r="C4" t="n">
-        <v>949.4527002428704</v>
+        <v>76.29955346557975</v>
       </c>
       <c r="D4" t="n">
-        <v>789.9580555657803</v>
+        <v>76.29955346557975</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0472404340999</v>
+        <v>76.29955346557975</v>
       </c>
       <c r="F4" t="n">
-        <v>464.4161145446911</v>
+        <v>76.29955346557975</v>
       </c>
       <c r="G4" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H4" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I4" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J4" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K4" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L4" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M4" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N4" t="n">
         <v>1029.84703862227</v>
@@ -4512,28 +4512,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R4" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S4" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T4" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U4" t="n">
-        <v>1560.611119000868</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="V4" t="n">
-        <v>1560.611119000868</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="W4" t="n">
-        <v>1560.611119000868</v>
+        <v>727.0788206111761</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.981477686434</v>
+        <v>488.7349584708595</v>
       </c>
       <c r="Y4" t="n">
-        <v>1308.245779075198</v>
+        <v>263.9992598596241</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.21222238001735</v>
+        <v>596.225513337818</v>
       </c>
       <c r="C5" t="n">
-        <v>31.21222238001735</v>
+        <v>596.225513337818</v>
       </c>
       <c r="D5" t="n">
-        <v>31.21222238001735</v>
+        <v>202.131796418407</v>
       </c>
       <c r="E5" t="n">
         <v>31.21222238001735</v>
@@ -4570,49 +4570,49 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K5" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L5" t="n">
-        <v>671.6489458004863</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M5" t="n">
-        <v>671.6489458004863</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="N5" t="n">
-        <v>788.1086150954382</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="O5" t="n">
-        <v>1174.359867048153</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="P5" t="n">
-        <v>1560.611119000868</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q5" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R5" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T5" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U5" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V5" t="n">
-        <v>1213.49337313825</v>
+        <v>596.225513337818</v>
       </c>
       <c r="W5" t="n">
-        <v>1213.49337313825</v>
+        <v>596.225513337818</v>
       </c>
       <c r="X5" t="n">
-        <v>819.3996562188394</v>
+        <v>596.225513337818</v>
       </c>
       <c r="Y5" t="n">
-        <v>425.3059392994284</v>
+        <v>596.225513337818</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>710.0430642665517</v>
+        <v>406.6642920438682</v>
       </c>
       <c r="C6" t="n">
-        <v>576.0479930154975</v>
+        <v>406.6642920438682</v>
       </c>
       <c r="D6" t="n">
-        <v>459.1508352348899</v>
+        <v>289.7671342632606</v>
       </c>
       <c r="E6" t="n">
-        <v>338.6580192272179</v>
+        <v>169.2743182555886</v>
       </c>
       <c r="F6" t="n">
-        <v>229.6981394097224</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="G6" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H6" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I6" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J6" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K6" t="n">
-        <v>408.7046310488249</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L6" t="n">
         <v>794.9558830015396</v>
       </c>
       <c r="M6" t="n">
-        <v>1181.207134954254</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N6" t="n">
-        <v>1181.207134954254</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O6" t="n">
-        <v>1181.207134954254</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P6" t="n">
         <v>1181.207134954254</v>
@@ -4673,25 +4673,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S6" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T6" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U6" t="n">
-        <v>1560.611119000868</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V6" t="n">
-        <v>1399.307206663087</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="W6" t="n">
-        <v>1186.074038399415</v>
+        <v>882.6952661767319</v>
       </c>
       <c r="X6" t="n">
-        <v>1009.748056538308</v>
+        <v>706.3692843156248</v>
       </c>
       <c r="Y6" t="n">
-        <v>850.3460969021384</v>
+        <v>546.9673246794548</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.21222238001735</v>
+        <v>512.7011945384261</v>
       </c>
       <c r="C7" t="n">
-        <v>31.21222238001735</v>
+        <v>512.7011945384261</v>
       </c>
       <c r="D7" t="n">
-        <v>31.21222238001735</v>
+        <v>512.7011945384261</v>
       </c>
       <c r="E7" t="n">
-        <v>31.21222238001735</v>
+        <v>512.7011945384261</v>
       </c>
       <c r="F7" t="n">
-        <v>31.21222238001735</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="G7" t="n">
-        <v>31.21222238001735</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H7" t="n">
         <v>31.21222238001735</v>
@@ -4725,16 +4725,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J7" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522814</v>
       </c>
       <c r="K7" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L7" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M7" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N7" t="n">
         <v>1029.84703862227</v>
@@ -4749,28 +4749,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R7" t="n">
-        <v>1531.250148669201</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S7" t="n">
-        <v>1344.858380549111</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T7" t="n">
-        <v>1105.309641525814</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U7" t="n">
-        <v>822.5114940719377</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V7" t="n">
-        <v>548.6257490114597</v>
+        <v>737.4368931496614</v>
       </c>
       <c r="W7" t="n">
-        <v>269.556084520334</v>
+        <v>737.4368931496614</v>
       </c>
       <c r="X7" t="n">
-        <v>31.21222238001735</v>
+        <v>737.4368931496614</v>
       </c>
       <c r="Y7" t="n">
-        <v>31.21222238001735</v>
+        <v>512.7011945384261</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1166.517402081457</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="C8" t="n">
-        <v>1166.517402081457</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="D8" t="n">
-        <v>1166.517402081457</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="E8" t="n">
-        <v>1130.308153591121</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F8" t="n">
-        <v>736.2144366717104</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G8" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H8" t="n">
         <v>31.21222238001735</v>
@@ -4804,28 +4804,28 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J8" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K8" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L8" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M8" t="n">
-        <v>671.6489458004863</v>
+        <v>40.13971065786654</v>
       </c>
       <c r="N8" t="n">
-        <v>1057.900197753201</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O8" t="n">
-        <v>1239.450112205576</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P8" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q8" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R8" t="n">
         <v>1560.611119000868</v>
@@ -4834,22 +4834,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T8" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U8" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V8" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="W8" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="X8" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1560.611119000868</v>
+        <v>1213.49337313825</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>710.0430642665517</v>
+        <v>390.3035758986833</v>
       </c>
       <c r="C9" t="n">
-        <v>576.0479930154975</v>
+        <v>390.3035758986833</v>
       </c>
       <c r="D9" t="n">
-        <v>459.1508352348899</v>
+        <v>273.4064181180757</v>
       </c>
       <c r="E9" t="n">
-        <v>338.6580192272179</v>
+        <v>152.9136021104037</v>
       </c>
       <c r="F9" t="n">
-        <v>229.6981394097224</v>
+        <v>43.95372229290831</v>
       </c>
       <c r="G9" t="n">
-        <v>122.7080267240611</v>
+        <v>43.95372229290831</v>
       </c>
       <c r="H9" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I9" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J9" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K9" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L9" t="n">
-        <v>31.21222238001735</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4634743327321</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N9" t="n">
-        <v>803.7147262854468</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O9" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P9" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q9" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R9" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S9" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T9" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U9" t="n">
-        <v>1363.260308139086</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="V9" t="n">
-        <v>1149.54878113212</v>
+        <v>1079.567718295218</v>
       </c>
       <c r="W9" t="n">
-        <v>936.3156128684487</v>
+        <v>866.3345500315471</v>
       </c>
       <c r="X9" t="n">
-        <v>936.3156128684487</v>
+        <v>690.00856817044</v>
       </c>
       <c r="Y9" t="n">
-        <v>850.3460969021384</v>
+        <v>530.60660853427</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.21222238001735</v>
+        <v>1101.246926162133</v>
       </c>
       <c r="C10" t="n">
-        <v>31.21222238001735</v>
+        <v>930.1535537238497</v>
       </c>
       <c r="D10" t="n">
-        <v>31.21222238001735</v>
+        <v>770.6589090467596</v>
       </c>
       <c r="E10" t="n">
-        <v>31.21222238001735</v>
+        <v>609.7480939150792</v>
       </c>
       <c r="F10" t="n">
-        <v>31.21222238001735</v>
+        <v>445.1169680256704</v>
       </c>
       <c r="G10" t="n">
-        <v>31.21222238001735</v>
+        <v>277.8665769512138</v>
       </c>
       <c r="H10" t="n">
-        <v>31.21222238001735</v>
+        <v>128.2591217566705</v>
       </c>
       <c r="I10" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J10" t="n">
-        <v>45.29477178522814</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L10" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M10" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N10" t="n">
         <v>1029.84703862227</v>
@@ -4992,22 +4992,22 @@
         <v>1288.946632556178</v>
       </c>
       <c r="T10" t="n">
-        <v>1049.39789353288</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U10" t="n">
-        <v>766.5997460790038</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="V10" t="n">
-        <v>492.7140010185257</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="W10" t="n">
-        <v>218.9119287740617</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="X10" t="n">
-        <v>218.9119287740617</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.9119287740617</v>
+        <v>1288.946632556178</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>736.2144366717104</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="C11" t="n">
-        <v>736.2144366717104</v>
+        <v>944.3109180283154</v>
       </c>
       <c r="D11" t="n">
-        <v>736.2144366717104</v>
+        <v>944.3109180283154</v>
       </c>
       <c r="E11" t="n">
-        <v>736.2144366717104</v>
+        <v>550.2172011089044</v>
       </c>
       <c r="F11" t="n">
-        <v>736.2144366717104</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="G11" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H11" t="n">
         <v>31.21222238001735</v>
@@ -5044,25 +5044,25 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K11" t="n">
-        <v>285.3976938477716</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="L11" t="n">
-        <v>466.9476083001462</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="M11" t="n">
-        <v>853.1988602528609</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="N11" t="n">
-        <v>853.1988602528609</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O11" t="n">
-        <v>1239.450112205576</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P11" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q11" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R11" t="n">
         <v>1560.611119000868</v>
@@ -5071,22 +5071,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T11" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U11" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V11" t="n">
-        <v>1210.773564337348</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="W11" t="n">
-        <v>827.0132634725169</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="X11" t="n">
-        <v>736.2144366717104</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="Y11" t="n">
-        <v>736.2144366717104</v>
+        <v>1338.404634947726</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>511.5571472368467</v>
+        <v>377.5620759857924</v>
       </c>
       <c r="C12" t="n">
         <v>377.5620759857924</v>
@@ -5126,19 +5126,19 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L12" t="n">
-        <v>758.5490957328082</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M12" t="n">
-        <v>1144.800347685523</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="N12" t="n">
-        <v>1144.800347685523</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O12" t="n">
-        <v>1144.800347685523</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P12" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q12" t="n">
         <v>1531.051599638238</v>
@@ -5153,19 +5153,19 @@
         <v>1293.279245302185</v>
       </c>
       <c r="U12" t="n">
-        <v>1095.928434440403</v>
+        <v>1280.537745389294</v>
       </c>
       <c r="V12" t="n">
-        <v>882.216907433437</v>
+        <v>1066.826218382328</v>
       </c>
       <c r="W12" t="n">
-        <v>668.9837391697657</v>
+        <v>853.5930501186563</v>
       </c>
       <c r="X12" t="n">
-        <v>651.8601798724333</v>
+        <v>677.267068257549</v>
       </c>
       <c r="Y12" t="n">
-        <v>651.8601798724333</v>
+        <v>517.865108621379</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.21222238001735</v>
+        <v>854.5925715909368</v>
       </c>
       <c r="C13" t="n">
-        <v>31.21222238001735</v>
+        <v>683.4991991526533</v>
       </c>
       <c r="D13" t="n">
-        <v>31.21222238001735</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E13" t="n">
-        <v>31.21222238001735</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F13" t="n">
-        <v>31.21222238001735</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G13" t="n">
         <v>31.21222238001735</v>
@@ -5208,7 +5208,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M13" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N13" t="n">
         <v>1029.84703862227</v>
@@ -5226,25 +5226,25 @@
         <v>1475.338400676267</v>
       </c>
       <c r="S13" t="n">
-        <v>1288.946632556178</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T13" t="n">
-        <v>1049.39789353288</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="U13" t="n">
-        <v>766.5997460790038</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="V13" t="n">
-        <v>492.7140010185257</v>
+        <v>1372.006098222379</v>
       </c>
       <c r="W13" t="n">
-        <v>213.6443365274001</v>
+        <v>1092.936433731253</v>
       </c>
       <c r="X13" t="n">
-        <v>31.21222238001735</v>
+        <v>854.5925715909368</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.21222238001735</v>
+        <v>854.5925715909368</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>809.0298428224162</v>
+      </c>
+      <c r="C14" t="n">
+        <v>809.0298428224162</v>
+      </c>
+      <c r="D14" t="n">
         <v>425.3059392994284</v>
-      </c>
-      <c r="C14" t="n">
-        <v>31.21222238001735</v>
-      </c>
-      <c r="D14" t="n">
-        <v>31.21222238001735</v>
       </c>
       <c r="E14" t="n">
         <v>31.21222238001735</v>
@@ -5284,46 +5284,46 @@
         <v>671.6489458004863</v>
       </c>
       <c r="L14" t="n">
-        <v>671.6489458004863</v>
+        <v>812.642214563296</v>
       </c>
       <c r="M14" t="n">
-        <v>1057.900197753201</v>
+        <v>812.642214563296</v>
       </c>
       <c r="N14" t="n">
-        <v>1057.900197753201</v>
+        <v>812.642214563296</v>
       </c>
       <c r="O14" t="n">
-        <v>1057.900197753201</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P14" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q14" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R14" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S14" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T14" t="n">
-        <v>1470.55386487874</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U14" t="n">
-        <v>1213.49337313825</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V14" t="n">
-        <v>1213.49337313825</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="W14" t="n">
-        <v>1213.49337313825</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="X14" t="n">
-        <v>1213.49337313825</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="Y14" t="n">
-        <v>819.3996562188394</v>
+        <v>1203.123559741827</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>710.0430642665517</v>
+        <v>406.6642920438682</v>
       </c>
       <c r="C15" t="n">
-        <v>576.0479930154975</v>
+        <v>406.6642920438682</v>
       </c>
       <c r="D15" t="n">
-        <v>459.1508352348899</v>
+        <v>289.7671342632606</v>
       </c>
       <c r="E15" t="n">
-        <v>338.6580192272179</v>
+        <v>169.2743182555886</v>
       </c>
       <c r="F15" t="n">
-        <v>229.6981394097224</v>
+        <v>60.31443843809313</v>
       </c>
       <c r="G15" t="n">
-        <v>122.7080267240611</v>
+        <v>60.31443843809313</v>
       </c>
       <c r="H15" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I15" t="n">
         <v>31.21222238001735</v>
@@ -5360,25 +5360,25 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K15" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L15" t="n">
-        <v>610.2763318953653</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M15" t="n">
-        <v>610.2763318953653</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N15" t="n">
-        <v>788.1086150954382</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O15" t="n">
-        <v>1174.359867048153</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P15" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q15" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R15" t="n">
         <v>1560.611119000868</v>
@@ -5390,19 +5390,19 @@
         <v>1293.279245302185</v>
       </c>
       <c r="U15" t="n">
-        <v>1277.290792172776</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V15" t="n">
-        <v>1063.57926516581</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="W15" t="n">
-        <v>850.3460969021384</v>
+        <v>882.6952661767319</v>
       </c>
       <c r="X15" t="n">
-        <v>850.3460969021384</v>
+        <v>706.3692843156248</v>
       </c>
       <c r="Y15" t="n">
-        <v>850.3460969021384</v>
+        <v>546.9673246794548</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.546072681154</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C16" t="n">
-        <v>949.4527002428704</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D16" t="n">
-        <v>789.9580555657803</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E16" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F16" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G16" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H16" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I16" t="n">
         <v>31.21222238001735</v>
@@ -5466,22 +5466,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T16" t="n">
-        <v>1560.611119000868</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U16" t="n">
-        <v>1560.611119000868</v>
+        <v>1038.264232523694</v>
       </c>
       <c r="V16" t="n">
-        <v>1560.611119000868</v>
+        <v>764.3784874632158</v>
       </c>
       <c r="W16" t="n">
-        <v>1560.611119000868</v>
+        <v>485.3088229720902</v>
       </c>
       <c r="X16" t="n">
-        <v>1532.981477686434</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="Y16" t="n">
-        <v>1308.245779075198</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.21222238001735</v>
+        <v>551.9693510819263</v>
       </c>
       <c r="C17" t="n">
-        <v>31.21222238001735</v>
+        <v>551.9693510819263</v>
       </c>
       <c r="D17" t="n">
-        <v>31.21222238001735</v>
+        <v>551.9693510819263</v>
       </c>
       <c r="E17" t="n">
-        <v>31.21222238001735</v>
+        <v>551.9693510819263</v>
       </c>
       <c r="F17" t="n">
-        <v>31.21222238001735</v>
+        <v>551.9693510819263</v>
       </c>
       <c r="G17" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H17" t="n">
         <v>31.21222238001735</v>
@@ -5518,49 +5518,49 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K17" t="n">
-        <v>466.9476083001462</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L17" t="n">
-        <v>466.9476083001462</v>
+        <v>812.642214563296</v>
       </c>
       <c r="M17" t="n">
-        <v>853.1988602528609</v>
+        <v>812.642214563296</v>
       </c>
       <c r="N17" t="n">
-        <v>853.1988602528609</v>
+        <v>812.642214563296</v>
       </c>
       <c r="O17" t="n">
-        <v>853.1988602528609</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P17" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q17" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R17" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S17" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T17" t="n">
-        <v>1338.404634947726</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U17" t="n">
-        <v>1081.344143207237</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V17" t="n">
-        <v>731.5065885437173</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="W17" t="n">
-        <v>347.7462876788858</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="X17" t="n">
-        <v>347.7462876788858</v>
+        <v>551.9693510819263</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.21222238001735</v>
+        <v>551.9693510819263</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>300.9427749225932</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C18" t="n">
-        <v>166.9477036715389</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D18" t="n">
-        <v>151.7050383876894</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E18" t="n">
-        <v>31.21222238001735</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F18" t="n">
-        <v>31.21222238001735</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G18" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H18" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I18" t="n">
         <v>31.21222238001735</v>
@@ -5597,49 +5597,49 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K18" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L18" t="n">
-        <v>610.2763318953653</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M18" t="n">
-        <v>788.1086150954382</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N18" t="n">
-        <v>788.1086150954382</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O18" t="n">
-        <v>1174.359867048153</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P18" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q18" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R18" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S18" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T18" t="n">
-        <v>1401.269255187876</v>
+        <v>1296.953025253111</v>
       </c>
       <c r="U18" t="n">
-        <v>1203.918444326094</v>
+        <v>1099.60221439133</v>
       </c>
       <c r="V18" t="n">
-        <v>990.2069173191283</v>
+        <v>1099.60221439133</v>
       </c>
       <c r="W18" t="n">
-        <v>776.973749055457</v>
+        <v>886.369046127659</v>
       </c>
       <c r="X18" t="n">
-        <v>600.6477671943499</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="Y18" t="n">
-        <v>441.2458075581799</v>
+        <v>710.0430642665517</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>485.3088229720902</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="C19" t="n">
-        <v>363.0937393438827</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="D19" t="n">
-        <v>363.0937393438827</v>
+        <v>87.47031615468359</v>
       </c>
       <c r="E19" t="n">
-        <v>363.0937393438827</v>
+        <v>87.47031615468359</v>
       </c>
       <c r="F19" t="n">
-        <v>198.4626134544739</v>
+        <v>87.47031615468359</v>
       </c>
       <c r="G19" t="n">
+        <v>87.47031615468359</v>
+      </c>
+      <c r="H19" t="n">
+        <v>87.47031615468359</v>
+      </c>
+      <c r="I19" t="n">
         <v>31.21222238001735</v>
       </c>
-      <c r="H19" t="n">
-        <v>31.21222238001735</v>
-      </c>
-      <c r="I19" t="n">
-        <v>31.21222238001724</v>
-      </c>
       <c r="J19" t="n">
-        <v>45.29477178522779</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K19" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L19" t="n">
-        <v>459.7441997875263</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M19" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N19" t="n">
         <v>1029.84703862227</v>
@@ -5715,10 +5715,10 @@
         <v>485.3088229720902</v>
       </c>
       <c r="X19" t="n">
-        <v>485.3088229720902</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.3088229720902</v>
+        <v>246.9649608317736</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>816.6798474179373</v>
+        <v>944.3109180283154</v>
       </c>
       <c r="C20" t="n">
-        <v>816.6798474179373</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="D20" t="n">
-        <v>816.6798474179373</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="E20" t="n">
-        <v>816.6798474179373</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F20" t="n">
-        <v>816.6798474179373</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G20" t="n">
-        <v>428.4724824352262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H20" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I20" t="n">
         <v>31.21222238001735</v>
@@ -5761,19 +5761,19 @@
         <v>31.21222238001735</v>
       </c>
       <c r="M20" t="n">
-        <v>417.4634743327321</v>
+        <v>80.69635634743145</v>
       </c>
       <c r="N20" t="n">
-        <v>803.7147262854468</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="O20" t="n">
-        <v>1189.965978238161</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="P20" t="n">
-        <v>1520.054473311303</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q20" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R20" t="n">
         <v>1560.611119000868</v>
@@ -5782,22 +5782,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T20" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U20" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V20" t="n">
-        <v>1210.773564337348</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="W20" t="n">
-        <v>1210.773564337348</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="X20" t="n">
-        <v>1210.773564337348</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="Y20" t="n">
-        <v>1210.773564337348</v>
+        <v>1338.404634947726</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>618.5472599225079</v>
+        <v>673.9961657425509</v>
       </c>
       <c r="C21" t="n">
-        <v>484.5521886714537</v>
+        <v>540.0010944914966</v>
       </c>
       <c r="D21" t="n">
-        <v>367.6550308908461</v>
+        <v>423.103936710889</v>
       </c>
       <c r="E21" t="n">
-        <v>247.1622148831741</v>
+        <v>302.611120703217</v>
       </c>
       <c r="F21" t="n">
-        <v>138.2023350656787</v>
+        <v>193.6512408857216</v>
       </c>
       <c r="G21" t="n">
-        <v>31.21222238001735</v>
+        <v>86.66112820006029</v>
       </c>
       <c r="H21" t="n">
         <v>31.21222238001735</v>
@@ -5843,10 +5843,10 @@
         <v>610.2763318953653</v>
       </c>
       <c r="N21" t="n">
-        <v>996.52758384808</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="O21" t="n">
-        <v>996.52758384808</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P21" t="n">
         <v>1181.207134954254</v>
@@ -5858,25 +5858,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S21" t="n">
-        <v>1542.487662503505</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T21" t="n">
-        <v>1383.145798690513</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U21" t="n">
-        <v>1185.794987828732</v>
+        <v>1363.260308139086</v>
       </c>
       <c r="V21" t="n">
-        <v>972.0834608217658</v>
+        <v>1363.260308139086</v>
       </c>
       <c r="W21" t="n">
-        <v>758.8502925580946</v>
+        <v>1150.027139875415</v>
       </c>
       <c r="X21" t="n">
-        <v>758.8502925580946</v>
+        <v>973.7011580143076</v>
       </c>
       <c r="Y21" t="n">
-        <v>758.8502925580946</v>
+        <v>814.2991983781376</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>456.6603681473245</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="C22" t="n">
-        <v>456.6603681473245</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="D22" t="n">
-        <v>297.1657234702345</v>
+        <v>192.1230375116979</v>
       </c>
       <c r="E22" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F22" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G22" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H22" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I22" t="n">
         <v>31.21222238001735</v>
@@ -5913,7 +5913,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K22" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L22" t="n">
         <v>459.7441997875264</v>
@@ -5934,28 +5934,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R22" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S22" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T22" t="n">
-        <v>1049.39789353288</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U22" t="n">
-        <v>766.5997460790038</v>
+        <v>1038.264232523694</v>
       </c>
       <c r="V22" t="n">
-        <v>492.7140010185257</v>
+        <v>764.3784874632158</v>
       </c>
       <c r="W22" t="n">
-        <v>456.6603681473245</v>
+        <v>485.3088229720902</v>
       </c>
       <c r="X22" t="n">
-        <v>456.6603681473245</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="Y22" t="n">
-        <v>456.6603681473245</v>
+        <v>246.9649608317736</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>142.8551754043043</v>
+        <v>1329.830049169152</v>
       </c>
       <c r="C23" t="n">
-        <v>41.76508562960203</v>
+        <v>1329.830049169152</v>
       </c>
       <c r="D23" t="n">
-        <v>41.76508562960203</v>
+        <v>1274.395973214227</v>
       </c>
       <c r="E23" t="n">
-        <v>41.76508562960203</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="F23" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>692.8507596625946</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L23" t="n">
-        <v>1209.69369432892</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M23" t="n">
-        <v>1209.69369432892</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N23" t="n">
         <v>1209.69369432892</v>
       </c>
       <c r="O23" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P23" t="n">
         <v>1726.536628995245</v>
@@ -6016,25 +6016,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V23" t="n">
-        <v>1738.416726816582</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W23" t="n">
-        <v>1354.656425951751</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X23" t="n">
-        <v>954.0130281207037</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y23" t="n">
-        <v>553.0763550687938</v>
+        <v>1329.830049169152</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C24" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G24" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L24" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M24" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N24" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O24" t="n">
-        <v>1531.257211227551</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P24" t="n">
-        <v>2048.100145893876</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q24" t="n">
         <v>2058.694762117472</v>
@@ -6104,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>222.8892615030297</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>222.8892615030297</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>202.6759007612825</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6171,28 +6171,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1246.342524902554</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>963.5443774486778</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V25" t="n">
-        <v>689.6586323881997</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W25" t="n">
-        <v>410.5889678970741</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X25" t="n">
-        <v>410.5889678970741</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y25" t="n">
-        <v>410.5889678970741</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>1213.49337313825</v>
+      </c>
+      <c r="C26" t="n">
+        <v>819.3996562188394</v>
+      </c>
+      <c r="D26" t="n">
+        <v>819.3996562188394</v>
+      </c>
+      <c r="E26" t="n">
         <v>425.3059392994284</v>
-      </c>
-      <c r="C26" t="n">
-        <v>31.21222238001735</v>
-      </c>
-      <c r="D26" t="n">
-        <v>31.21222238001735</v>
-      </c>
-      <c r="E26" t="n">
-        <v>31.21222238001735</v>
       </c>
       <c r="F26" t="n">
         <v>31.21222238001735</v>
@@ -6229,16 +6229,16 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K26" t="n">
-        <v>426.3909626105813</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L26" t="n">
-        <v>426.3909626105813</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M26" t="n">
-        <v>426.3909626105813</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N26" t="n">
-        <v>426.3909626105813</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O26" t="n">
         <v>812.642214563296</v>
@@ -6265,13 +6265,13 @@
         <v>1560.611119000868</v>
       </c>
       <c r="W26" t="n">
-        <v>1213.49337313825</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X26" t="n">
-        <v>819.3996562188394</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y26" t="n">
-        <v>425.3059392994284</v>
+        <v>1560.611119000868</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>710.0430642665517</v>
+        <v>618.5472599225079</v>
       </c>
       <c r="C27" t="n">
-        <v>576.0479930154975</v>
+        <v>484.5521886714537</v>
       </c>
       <c r="D27" t="n">
-        <v>459.1508352348899</v>
+        <v>367.6550308908461</v>
       </c>
       <c r="E27" t="n">
-        <v>338.6580192272179</v>
+        <v>247.1622148831741</v>
       </c>
       <c r="F27" t="n">
-        <v>229.6981394097224</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="G27" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H27" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I27" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J27" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K27" t="n">
-        <v>372.2978437800934</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L27" t="n">
-        <v>758.5490957328082</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M27" t="n">
-        <v>1144.800347685523</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N27" t="n">
-        <v>1144.800347685523</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O27" t="n">
-        <v>1531.051599638238</v>
+        <v>996.52758384808</v>
       </c>
       <c r="P27" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q27" t="n">
         <v>1531.051599638238</v>
@@ -6341,16 +6341,16 @@
         <v>1203.918444326094</v>
       </c>
       <c r="V27" t="n">
-        <v>1203.918444326094</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W27" t="n">
-        <v>1186.074038399415</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X27" t="n">
-        <v>1009.748056538308</v>
+        <v>758.8502925580946</v>
       </c>
       <c r="Y27" t="n">
-        <v>850.3460969021384</v>
+        <v>758.8502925580946</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>630.7621873641457</v>
+        <v>854.5925715909368</v>
       </c>
       <c r="C28" t="n">
-        <v>459.6688149258622</v>
+        <v>683.4991991526533</v>
       </c>
       <c r="D28" t="n">
-        <v>300.1741702487722</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E28" t="n">
-        <v>139.2633551170917</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F28" t="n">
-        <v>31.21222238001735</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G28" t="n">
         <v>31.21222238001735</v>
@@ -6411,25 +6411,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S28" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T28" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U28" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="V28" t="n">
-        <v>1560.611119000868</v>
+        <v>1100.3336058203</v>
       </c>
       <c r="W28" t="n">
-        <v>1281.541454509742</v>
+        <v>1042.292277984981</v>
       </c>
       <c r="X28" t="n">
-        <v>1043.197592369425</v>
+        <v>1042.292277984981</v>
       </c>
       <c r="Y28" t="n">
-        <v>818.4618937581901</v>
+        <v>1042.292277984981</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>38.82582963369487</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="C29" t="n">
-        <v>38.82582963369487</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D29" t="n">
-        <v>38.82582963369487</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E29" t="n">
-        <v>38.82582963369487</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F29" t="n">
-        <v>38.82582963369487</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="G29" t="n">
-        <v>38.82582963369487</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H29" t="n">
-        <v>38.82582963369487</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I29" t="n">
         <v>31.21222238001735</v>
@@ -6490,25 +6490,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S29" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T29" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U29" t="n">
-        <v>1560.611119000868</v>
+        <v>1086.05199133523</v>
       </c>
       <c r="V29" t="n">
-        <v>1210.773564337348</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="W29" t="n">
-        <v>827.0132634725169</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="X29" t="n">
-        <v>432.9195465531059</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="Y29" t="n">
-        <v>38.82582963369487</v>
+        <v>736.2144366717104</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J30" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K30" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L30" t="n">
-        <v>31.21222238001735</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M30" t="n">
-        <v>401.8573631427234</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N30" t="n">
-        <v>788.1086150954382</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O30" t="n">
-        <v>1174.359867048153</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P30" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q30" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R30" t="n">
         <v>1560.611119000868</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>538.4657938752982</v>
+        <v>507.5647133261073</v>
       </c>
       <c r="C31" t="n">
-        <v>538.4657938752982</v>
+        <v>507.5647133261073</v>
       </c>
       <c r="D31" t="n">
-        <v>538.4657938752982</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="E31" t="n">
-        <v>538.4657938752982</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="F31" t="n">
-        <v>373.8346679858895</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="G31" t="n">
-        <v>206.5842769114329</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H31" t="n">
-        <v>56.97682171688956</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I31" t="n">
         <v>31.21222238001735</v>
@@ -6648,25 +6648,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S31" t="n">
-        <v>1374.219350880778</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T31" t="n">
-        <v>1374.219350880778</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U31" t="n">
-        <v>1091.421203426902</v>
+        <v>1277.812971546992</v>
       </c>
       <c r="V31" t="n">
-        <v>817.5354583664239</v>
+        <v>1003.927226486514</v>
       </c>
       <c r="W31" t="n">
-        <v>538.4657938752982</v>
+        <v>933.6082818604682</v>
       </c>
       <c r="X31" t="n">
-        <v>538.4657938752982</v>
+        <v>695.2644197201516</v>
       </c>
       <c r="Y31" t="n">
-        <v>538.4657938752982</v>
+        <v>695.2644197201516</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1560.611119000868</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="C32" t="n">
-        <v>1166.517402081457</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="D32" t="n">
-        <v>819.3996562188394</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="E32" t="n">
-        <v>425.3059392994284</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="F32" t="n">
-        <v>31.21222238001735</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="G32" t="n">
-        <v>31.21222238001735</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H32" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I32" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J32" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K32" t="n">
-        <v>417.4634743327321</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L32" t="n">
-        <v>803.7147262854468</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="M32" t="n">
-        <v>1189.965978238161</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="N32" t="n">
-        <v>1189.965978238161</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="O32" t="n">
-        <v>1520.054473311303</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="P32" t="n">
-        <v>1520.054473311303</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q32" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R32" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S32" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T32" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U32" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V32" t="n">
-        <v>1560.611119000868</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="W32" t="n">
-        <v>1560.611119000868</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="X32" t="n">
-        <v>1560.611119000868</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="Y32" t="n">
-        <v>1560.611119000868</v>
+        <v>822.5661993546372</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>494.093071763395</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="C33" t="n">
-        <v>360.0980005123407</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="D33" t="n">
-        <v>243.2008427317331</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E33" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F33" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G33" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H33" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I33" t="n">
         <v>31.21222238001735</v>
@@ -6782,49 +6782,49 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K33" t="n">
-        <v>438.2641504114549</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L33" t="n">
-        <v>438.2641504114549</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M33" t="n">
-        <v>824.5154023641696</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="N33" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O33" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P33" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q33" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R33" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S33" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T33" t="n">
-        <v>1401.269255187876</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U33" t="n">
-        <v>1203.918444326094</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V33" t="n">
-        <v>1183.35721415993</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W33" t="n">
-        <v>970.1240458962588</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X33" t="n">
-        <v>793.7980640351516</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y33" t="n">
-        <v>634.3961043989816</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.6443365274001</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C34" t="n">
-        <v>213.6443365274001</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D34" t="n">
-        <v>213.6443365274001</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E34" t="n">
-        <v>213.6443365274001</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F34" t="n">
-        <v>213.6443365274001</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G34" t="n">
-        <v>213.6443365274001</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H34" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I34" t="n">
         <v>31.21222238001735</v>
@@ -6882,28 +6882,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R34" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S34" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T34" t="n">
-        <v>1049.39789353288</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U34" t="n">
-        <v>766.5997460790038</v>
+        <v>1038.264232523694</v>
       </c>
       <c r="V34" t="n">
-        <v>492.7140010185257</v>
+        <v>764.3784874632158</v>
       </c>
       <c r="W34" t="n">
-        <v>213.6443365274001</v>
+        <v>485.3088229720902</v>
       </c>
       <c r="X34" t="n">
-        <v>213.6443365274001</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.6443365274001</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>342.1207197522994</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="C35" t="n">
-        <v>342.1207197522994</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="D35" t="n">
-        <v>342.1207197522994</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="E35" t="n">
-        <v>342.1207197522994</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="F35" t="n">
-        <v>342.1207197522994</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="G35" t="n">
-        <v>342.1207197522994</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H35" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I35" t="n">
         <v>31.21222238001735</v>
@@ -6946,43 +6946,43 @@
         <v>1057.900197753201</v>
       </c>
       <c r="M35" t="n">
-        <v>1133.803221358588</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="N35" t="n">
-        <v>1520.054473311303</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="O35" t="n">
-        <v>1520.054473311303</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="P35" t="n">
-        <v>1520.054473311303</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q35" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R35" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S35" t="n">
-        <v>1554.985551074281</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T35" t="n">
-        <v>1332.77906702114</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U35" t="n">
-        <v>1075.71857528065</v>
+        <v>1216.659916274048</v>
       </c>
       <c r="V35" t="n">
-        <v>725.8810206171308</v>
+        <v>1216.659916274048</v>
       </c>
       <c r="W35" t="n">
-        <v>342.1207197522994</v>
+        <v>1216.659916274048</v>
       </c>
       <c r="X35" t="n">
-        <v>342.1207197522994</v>
+        <v>1216.659916274048</v>
       </c>
       <c r="Y35" t="n">
-        <v>342.1207197522994</v>
+        <v>822.5661993546372</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.5367441623545</v>
+        <v>511.5571472368467</v>
       </c>
       <c r="C36" t="n">
-        <v>469.5416729113002</v>
+        <v>377.5620759857924</v>
       </c>
       <c r="D36" t="n">
-        <v>352.6445151306926</v>
+        <v>260.6649182051848</v>
       </c>
       <c r="E36" t="n">
-        <v>232.1516991230206</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1918193055251</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G36" t="n">
         <v>31.21222238001735</v>
@@ -7019,49 +7019,49 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K36" t="n">
+        <v>224.0250799426506</v>
+      </c>
+      <c r="L36" t="n">
+        <v>224.0250799426506</v>
+      </c>
+      <c r="M36" t="n">
         <v>610.2763318953653</v>
       </c>
-      <c r="L36" t="n">
-        <v>610.2763318953653</v>
-      </c>
-      <c r="M36" t="n">
-        <v>758.5490957328082</v>
-      </c>
       <c r="N36" t="n">
-        <v>1144.800347685523</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="O36" t="n">
-        <v>1144.800347685523</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="P36" t="n">
-        <v>1531.051599638238</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q36" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R36" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S36" t="n">
-        <v>1452.621109115176</v>
+        <v>1557.513964308155</v>
       </c>
       <c r="T36" t="n">
-        <v>1293.279245302185</v>
+        <v>1398.172100495163</v>
       </c>
       <c r="U36" t="n">
-        <v>1293.279245302185</v>
+        <v>1200.821289633382</v>
       </c>
       <c r="V36" t="n">
-        <v>1079.567718295218</v>
+        <v>1200.821289633382</v>
       </c>
       <c r="W36" t="n">
-        <v>1079.567718295218</v>
+        <v>987.5881213697105</v>
       </c>
       <c r="X36" t="n">
-        <v>903.2417364341111</v>
+        <v>811.2621395086032</v>
       </c>
       <c r="Y36" t="n">
-        <v>743.8397767979411</v>
+        <v>651.8601798724333</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.546072681154</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="C37" t="n">
-        <v>949.4527002428704</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="D37" t="n">
-        <v>789.9580555657803</v>
+        <v>333.2193563414357</v>
       </c>
       <c r="E37" t="n">
-        <v>629.0472404340999</v>
+        <v>172.3085412097552</v>
       </c>
       <c r="F37" t="n">
-        <v>464.4161145446911</v>
+        <v>172.3085412097552</v>
       </c>
       <c r="G37" t="n">
-        <v>297.1657234702345</v>
+        <v>172.3085412097552</v>
       </c>
       <c r="H37" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I37" t="n">
         <v>31.21222238001735</v>
@@ -7098,7 +7098,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K37" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L37" t="n">
         <v>459.7441997875264</v>
@@ -7119,28 +7119,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R37" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S37" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T37" t="n">
-        <v>1560.611119000868</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U37" t="n">
-        <v>1560.611119000868</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="V37" t="n">
-        <v>1560.611119000868</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="W37" t="n">
-        <v>1560.611119000868</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="X37" t="n">
-        <v>1532.981477686434</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="Y37" t="n">
-        <v>1308.245779075198</v>
+        <v>492.7140010185257</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>425.3059392994284</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="C38" t="n">
-        <v>425.3059392994284</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="D38" t="n">
-        <v>425.3059392994284</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="E38" t="n">
-        <v>425.3059392994284</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="F38" t="n">
         <v>425.3059392994284</v>
@@ -7174,19 +7174,19 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J38" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K38" t="n">
+        <v>417.4634743327321</v>
+      </c>
+      <c r="L38" t="n">
+        <v>417.4634743327321</v>
+      </c>
+      <c r="M38" t="n">
+        <v>417.4634743327321</v>
+      </c>
+      <c r="N38" t="n">
         <v>426.3909626105813</v>
-      </c>
-      <c r="L38" t="n">
-        <v>426.3909626105813</v>
-      </c>
-      <c r="M38" t="n">
-        <v>426.3909626105813</v>
-      </c>
-      <c r="N38" t="n">
-        <v>812.642214563296</v>
       </c>
       <c r="O38" t="n">
         <v>812.642214563296</v>
@@ -7204,22 +7204,22 @@
         <v>1425.330043794968</v>
       </c>
       <c r="T38" t="n">
-        <v>1425.330043794968</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U38" t="n">
-        <v>1168.269552054478</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V38" t="n">
-        <v>1168.269552054478</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="W38" t="n">
-        <v>784.5092511896471</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="X38" t="n">
-        <v>784.5092511896471</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="Y38" t="n">
-        <v>425.3059392994284</v>
+        <v>819.3996562188394</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>441.2458075581799</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C39" t="n">
-        <v>307.2507363071256</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D39" t="n">
-        <v>190.353578526518</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E39" t="n">
-        <v>69.86076251884597</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F39" t="n">
-        <v>69.86076251884597</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G39" t="n">
         <v>31.21222238001735</v>
@@ -7259,22 +7259,22 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L39" t="n">
-        <v>610.2763318953653</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M39" t="n">
-        <v>610.2763318953653</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N39" t="n">
-        <v>794.9558830015396</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O39" t="n">
-        <v>794.9558830015396</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P39" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q39" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R39" t="n">
         <v>1560.611119000868</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.1945680325682</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C40" t="n">
-        <v>588.1011955942847</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D40" t="n">
-        <v>588.1011955942847</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E40" t="n">
-        <v>512.7011945384261</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F40" t="n">
-        <v>348.0700686490173</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G40" t="n">
-        <v>180.8196775745607</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H40" t="n">
         <v>31.21222238001735</v>
@@ -7368,16 +7368,16 @@
         <v>1038.264232523694</v>
       </c>
       <c r="V40" t="n">
-        <v>1038.264232523694</v>
+        <v>764.3784874632158</v>
       </c>
       <c r="W40" t="n">
-        <v>759.1945680325682</v>
+        <v>485.3088229720902</v>
       </c>
       <c r="X40" t="n">
-        <v>759.1945680325682</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="Y40" t="n">
-        <v>759.1945680325682</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>819.3996562188394</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="C41" t="n">
-        <v>819.3996562188394</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="D41" t="n">
-        <v>819.3996562188394</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="E41" t="n">
-        <v>425.3059392994284</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="F41" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G41" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H41" t="n">
         <v>31.21222238001735</v>
@@ -7417,19 +7417,19 @@
         <v>671.6489458004863</v>
       </c>
       <c r="L41" t="n">
-        <v>671.6489458004863</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M41" t="n">
-        <v>747.5519694058733</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="N41" t="n">
-        <v>747.5519694058733</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="O41" t="n">
-        <v>1133.803221358588</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="P41" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q41" t="n">
         <v>1520.054473311303</v>
@@ -7441,22 +7441,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T41" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U41" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V41" t="n">
-        <v>1560.611119000868</v>
+        <v>988.5670802842071</v>
       </c>
       <c r="W41" t="n">
-        <v>1213.49337313825</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="X41" t="n">
-        <v>1213.49337313825</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="Y41" t="n">
-        <v>1213.49337313825</v>
+        <v>342.1207197522994</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>689.2944728867919</v>
+        <v>434.8065856280656</v>
       </c>
       <c r="C42" t="n">
-        <v>555.2994016357376</v>
+        <v>434.8065856280656</v>
       </c>
       <c r="D42" t="n">
-        <v>438.40224385513</v>
+        <v>317.909427847458</v>
       </c>
       <c r="E42" t="n">
         <v>317.909427847458</v>
@@ -7496,19 +7496,19 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L42" t="n">
-        <v>824.5154023641696</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M42" t="n">
-        <v>824.5154023641696</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="N42" t="n">
-        <v>824.5154023641696</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O42" t="n">
-        <v>824.5154023641696</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P42" t="n">
-        <v>1210.766654316884</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q42" t="n">
         <v>1560.611119000868</v>
@@ -7517,25 +7517,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S42" t="n">
-        <v>1452.621109115176</v>
+        <v>1554.171897070753</v>
       </c>
       <c r="T42" t="n">
-        <v>1293.279245302185</v>
+        <v>1394.830033257761</v>
       </c>
       <c r="U42" t="n">
-        <v>1165.325447019656</v>
+        <v>1197.47922239598</v>
       </c>
       <c r="V42" t="n">
-        <v>1165.325447019656</v>
+        <v>983.767695389014</v>
       </c>
       <c r="W42" t="n">
-        <v>1165.325447019656</v>
+        <v>770.5345271253427</v>
       </c>
       <c r="X42" t="n">
-        <v>988.9994651585486</v>
+        <v>594.2085452642356</v>
       </c>
       <c r="Y42" t="n">
-        <v>829.5975055223786</v>
+        <v>434.8065856280656</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>522.7110546270713</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C43" t="n">
-        <v>351.6176821887879</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D43" t="n">
-        <v>192.1230375116979</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E43" t="n">
         <v>31.21222238001735</v>
@@ -7587,34 +7587,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P43" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q43" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R43" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S43" t="n">
-        <v>1452.559986263793</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T43" t="n">
-        <v>1452.559986263793</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U43" t="n">
-        <v>1452.559986263793</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="V43" t="n">
-        <v>1452.559986263793</v>
+        <v>817.5354583664239</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.490321772668</v>
+        <v>538.4657938752982</v>
       </c>
       <c r="X43" t="n">
-        <v>935.146459632351</v>
+        <v>300.1219317349816</v>
       </c>
       <c r="Y43" t="n">
-        <v>710.4107610211157</v>
+        <v>75.38623312374631</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>562.302767136506</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="C44" t="n">
-        <v>562.302767136506</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="D44" t="n">
-        <v>562.302767136506</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="E44" t="n">
-        <v>562.302767136506</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="F44" t="n">
-        <v>562.302767136506</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G44" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H44" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I44" t="n">
         <v>31.21222238001735</v>
@@ -7651,22 +7651,22 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K44" t="n">
-        <v>285.3976938477716</v>
+        <v>401.8573631427234</v>
       </c>
       <c r="L44" t="n">
-        <v>285.3976938477716</v>
+        <v>401.8573631427234</v>
       </c>
       <c r="M44" t="n">
-        <v>285.3976938477716</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="N44" t="n">
-        <v>671.6489458004863</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O44" t="n">
-        <v>853.1988602528609</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P44" t="n">
-        <v>1239.450112205576</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q44" t="n">
         <v>1560.611119000868</v>
@@ -7681,19 +7681,19 @@
         <v>1203.123559741827</v>
       </c>
       <c r="U44" t="n">
-        <v>946.0630680013373</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V44" t="n">
-        <v>946.0630680013373</v>
+        <v>1119.974737536542</v>
       </c>
       <c r="W44" t="n">
-        <v>562.302767136506</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="X44" t="n">
-        <v>562.302767136506</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="Y44" t="n">
-        <v>562.302767136506</v>
+        <v>342.1207197522994</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>689.2944728867919</v>
+        <v>342.9446192810169</v>
       </c>
       <c r="C45" t="n">
-        <v>555.2994016357376</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="D45" t="n">
-        <v>438.40224385513</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="E45" t="n">
-        <v>317.909427847458</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="F45" t="n">
         <v>208.9495480299626</v>
@@ -7733,19 +7733,19 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L45" t="n">
-        <v>996.52758384808</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="M45" t="n">
-        <v>1382.778835800795</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="N45" t="n">
-        <v>1382.778835800795</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="O45" t="n">
-        <v>1382.778835800795</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P45" t="n">
-        <v>1560.611119000868</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q45" t="n">
         <v>1560.611119000868</v>
@@ -7754,25 +7754,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S45" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T45" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U45" t="n">
-        <v>1165.325447019656</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V45" t="n">
-        <v>1165.325447019656</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W45" t="n">
-        <v>1165.325447019656</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X45" t="n">
-        <v>988.9994651585486</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y45" t="n">
-        <v>829.5975055223786</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="46">
@@ -7839,16 +7839,16 @@
         <v>1321.06237997757</v>
       </c>
       <c r="U46" t="n">
-        <v>1038.264232523694</v>
+        <v>1047.247192683173</v>
       </c>
       <c r="V46" t="n">
-        <v>764.3784874632158</v>
+        <v>773.3614476226949</v>
       </c>
       <c r="W46" t="n">
-        <v>485.3088229720902</v>
+        <v>494.2917831315693</v>
       </c>
       <c r="X46" t="n">
-        <v>246.9649608317736</v>
+        <v>255.9479209912527</v>
       </c>
       <c r="Y46" t="n">
         <v>31.21222238001735</v>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>231.5538328679743</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M2" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N2" t="n">
-        <v>142.896264461078</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,19 +8057,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>242.3707839019632</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M3" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>434.4988566955759</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
@@ -8142,7 +8142,7 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L4" t="n">
-        <v>317.1506174091145</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M4" t="n">
         <v>348.4508580952379</v>
@@ -8218,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L5" t="n">
         <v>485.6381778130617</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>235.7076676518025</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5483203474798</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>437.1312460864413</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L6" t="n">
-        <v>446.2673035610659</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M6" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
@@ -8312,7 +8312,7 @@
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>65.65794306195595</v>
+        <v>65.65794306195622</v>
       </c>
       <c r="K7" t="n">
         <v>208.3638319047618</v>
@@ -8388,7 +8388,7 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O7" t="n">
-        <v>318.2573327462027</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P7" t="n">
         <v>263.5328115890082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
@@ -8461,22 +8461,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>483.4430042072623</v>
+        <v>102.3078893841658</v>
       </c>
       <c r="N8" t="n">
         <v>483.0650705068362</v>
       </c>
       <c r="O8" t="n">
-        <v>276.5735275978785</v>
+        <v>483.342555376</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M9" t="n">
         <v>447.7170634886343</v>
       </c>
       <c r="N9" t="n">
-        <v>443.3461731439669</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O9" t="n">
-        <v>439.0569423018259</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>65.65794306195622</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K10" t="n">
         <v>208.3638319047618</v>
@@ -8692,13 +8692,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>231.5538328679743</v>
       </c>
       <c r="L11" t="n">
-        <v>278.8691500349403</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
         <v>92.91229075661933</v>
@@ -8707,13 +8707,13 @@
         <v>483.342555376</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,10 +8774,10 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L12" t="n">
-        <v>205.8849923335186</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M12" t="n">
-        <v>447.7170634886343</v>
+        <v>244.1092848557653</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
@@ -8786,10 +8786,10 @@
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8856,7 +8856,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>348.4508580952381</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N13" t="n">
         <v>335.3881832803894</v>
@@ -8932,10 +8932,10 @@
         <v>479.289169423434</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>237.902841257602</v>
       </c>
       <c r="M14" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
         <v>92.91229075661933</v>
@@ -8944,13 +8944,13 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>277.0331152529795</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L15" t="n">
-        <v>446.2673035610659</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>232.8219622827125</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>272.5201416453126</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L17" t="n">
-        <v>95.48539806284482</v>
+        <v>237.902841257602</v>
       </c>
       <c r="M17" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
         <v>92.91229075661933</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L18" t="n">
-        <v>446.2673035610659</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M18" t="n">
-        <v>237.1928526273799</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>483.4430042072623</v>
+        <v>143.2741981615041</v>
       </c>
       <c r="N20" t="n">
         <v>483.0650705068362</v>
@@ -9418,13 +9418,13 @@
         <v>483.342555376</v>
       </c>
       <c r="P20" t="n">
-        <v>427.0720855769865</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>244.2964801173478</v>
       </c>
       <c r="P21" t="n">
-        <v>240.8046361201516</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9640,22 +9640,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>490.0456851936598</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661933</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O23" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P24" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>67.39425105392507</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9877,7 +9877,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>231.5538328679743</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L26" t="n">
         <v>95.48539806284482</v>
@@ -9889,7 +9889,7 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>483.342555376</v>
+        <v>235.6072188205403</v>
       </c>
       <c r="P26" t="n">
         <v>483.8021430311011</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>400.3567134917629</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L27" t="n">
         <v>446.2673035610659</v>
       </c>
       <c r="M27" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>240.8046361201516</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M30" t="n">
-        <v>431.9533148118579</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>479.289169423434</v>
       </c>
       <c r="L32" t="n">
-        <v>485.6381778130617</v>
+        <v>278.8691500349403</v>
       </c>
       <c r="M32" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>426.6124979218854</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,16 +10430,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>272.2288842682561</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M33" t="n">
-        <v>447.7170634886343</v>
+        <v>244.1092848557653</v>
       </c>
       <c r="N33" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
@@ -10451,7 +10451,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,22 +10594,22 @@
         <v>485.6381778130617</v>
       </c>
       <c r="M35" t="n">
-        <v>169.9599452705675</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>93.18977562578313</v>
+        <v>276.5735275978785</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>207.334752261087</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N36" t="n">
-        <v>443.3461731439669</v>
+        <v>269.5964948773907</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P36" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>231.5538328679743</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L38" t="n">
         <v>95.48539806284482</v>
@@ -10834,10 +10834,10 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>483.0650705068362</v>
+        <v>101.9299556837397</v>
       </c>
       <c r="O38" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P38" t="n">
         <v>483.8021430311011</v>
@@ -10907,25 +10907,25 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N39" t="n">
-        <v>239.7383945110979</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,22 +11065,22 @@
         <v>479.289169423434</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M41" t="n">
-        <v>169.9599452705676</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>483.8021430311011</v>
+        <v>236.0668064756412</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11144,22 +11144,22 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L42" t="n">
-        <v>272.5176252944898</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>237.1928526273799</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P42" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11299,25 +11299,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>206.7724192640775</v>
       </c>
       <c r="L44" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N44" t="n">
         <v>483.0650705068362</v>
       </c>
       <c r="O44" t="n">
-        <v>276.5735275978786</v>
+        <v>483.342555376</v>
       </c>
       <c r="P44" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
         <v>87.31214281472352</v>
@@ -11381,10 +11381,10 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L45" t="n">
-        <v>446.2673035610659</v>
+        <v>272.5176252944898</v>
       </c>
       <c r="M45" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
@@ -11393,10 +11393,10 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>233.8882038917663</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22558,13 +22558,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>201.4964583599528</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>261.300446762684</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -22637,7 +22637,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>18.71039602890627</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
@@ -22676,10 +22676,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>100.6379475717906</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -22707,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120.9414293890052</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>240.9864350302665</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>2.692610712892986</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22874,16 +22874,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>41.22854693714608</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,16 +22913,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>51.88353852249338</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -22953,13 +22953,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>55.35263051300471</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23001,16 +23001,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.8556720684701</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23029,16 +23029,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>374.3496573228405</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F8" t="n">
         <v>26.66732817563241</v>
       </c>
       <c r="G8" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23074,7 +23074,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -23089,7 +23089,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>273.2651571300094</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23114,13 +23114,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>57.42565592087906</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,13 +23150,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23165,10 +23165,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>72.69811923316099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23181,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>19.10615505383053</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>5.214916324195087</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -23260,22 +23260,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>293.157958734468</v>
       </c>
       <c r="G11" t="n">
         <v>14.48822151587922</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23311,19 +23311,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>306.7461253199385</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>182.7632178394016</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>157.610398338137</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23418,19 +23418,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
@@ -23466,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>168.847908180524</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23497,13 +23497,13 @@
         <v>15.96618811762767</v>
       </c>
       <c r="C14" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>20.53262612011213</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.8277376317036</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>41.22854693714608</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,19 +23630,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>179.5487341550488</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="17">
@@ -23746,10 +23746,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>196.8908562497654</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y17" t="n">
-        <v>83.55858167551105</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>100.6379475717904</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,16 +23861,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>3.637042151417717</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -23892,25 +23892,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>48.38950592197526</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>59.48707259979754</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23971,25 +23971,25 @@
         <v>15.96618811762767</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>282.3611955884813</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G20" t="n">
-        <v>20.31570993321219</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>70.03974083464111</v>
+        <v>15.1453240727986</v>
       </c>
       <c r="I21" t="n">
         <v>20.54110546596223</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>88.96788785444544</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24132,10 +24132,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>103.6061941434441</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24144,10 +24144,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>240.5858713037252</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>305.9441559029073</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>345.5395554124938</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>137.8884710959894</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>62.47239946385344</v>
       </c>
       <c r="C26" t="n">
         <v>15.87056502964566</v>
@@ -24451,10 +24451,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -24505,13 +24505,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>36.27612945219198</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24581,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>193.4348747136223</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>156.6205001101073</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="28">
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>56.01419322081105</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -24651,7 +24651,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
@@ -24660,16 +24660,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>218.8180532892491</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>77.95077387495682</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>138.5890341005533</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>89.67563209321362</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>206.6632126664293</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24919,13 +24919,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>56.77272220387903</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>26.66732817563241</v>
@@ -24934,10 +24934,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>224.077279156651</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -24998,10 +24998,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>91.81987115582334</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25013,10 +25013,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>191.2187938723939</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>82.68617307340614</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>128.3589522065196</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>47.90646057737396</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="36">
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>14.86041060255197</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H36" t="n">
         <v>70.03974083464111</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>103.8439266410486</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>8.426025001157427</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25402,7 +25402,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G38" t="n">
         <v>14.48822151587922</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>220.9424014522111</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>41.3160275500743</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,7 +25484,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>67.65815682136434</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H39" t="n">
         <v>70.03974083464111</v>
@@ -25551,22 +25551,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>84.65570593506366</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25636,16 +25636,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25681,19 +25681,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>36.27612945219198</v>
+        <v>130.0935806798113</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25757,19 +25757,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>100.535280076021</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>68.70304245345991</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>142.0904386938123</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>161.9772201705399</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>272.1490194118292</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>264.0218451336516</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25943,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>41.58182591483943</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25994,19 +25994,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>68.70304245345991</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>8.893130557884319</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.893130557884291</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>485496.229552635</v>
+        <v>485496.2295526349</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>485496.2295526348</v>
+        <v>485496.2295526349</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>485496.2295526349</v>
+        <v>485496.2295526348</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>485496.229552635</v>
+        <v>485496.2295526348</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>485496.229552635</v>
+        <v>485496.2295526349</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>485496.2295526349</v>
+        <v>485496.229552635</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>485496.229552635</v>
+        <v>485496.2295526349</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>485496.2295526349</v>
+        <v>485496.2295526348</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>485496.2295526349</v>
+        <v>485496.2295526348</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>485496.2295526348</v>
+        <v>485496.2295526349</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>485496.2295526348</v>
+        <v>485496.2295526349</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103370.7551601572</v>
+        <v>103370.7551601573</v>
       </c>
       <c r="C2" t="n">
         <v>103370.7551601573</v>
@@ -26325,7 +26325,7 @@
         <v>103370.7551601573</v>
       </c>
       <c r="F2" t="n">
-        <v>103370.7551601574</v>
+        <v>103370.7551601573</v>
       </c>
       <c r="G2" t="n">
         <v>103370.7551601573</v>
@@ -26340,7 +26340,7 @@
         <v>103370.7551601573</v>
       </c>
       <c r="K2" t="n">
-        <v>103370.7551601574</v>
+        <v>103370.7551601573</v>
       </c>
       <c r="L2" t="n">
         <v>103370.7551601573</v>
@@ -26355,7 +26355,7 @@
         <v>103370.7551601573</v>
       </c>
       <c r="P2" t="n">
-        <v>103370.7551601573</v>
+        <v>103370.7551601574</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>35077.84935241011</v>
+        <v>35077.84935241014</v>
       </c>
       <c r="J3" t="n">
-        <v>67567.46700403656</v>
+        <v>67567.46700403653</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32593.54773220027</v>
+        <v>32593.54773220026</v>
       </c>
       <c r="C4" t="n">
         <v>32593.54773220027</v>
@@ -26456,7 +26456,7 @@
         <v>32593.54773220027</v>
       </c>
       <c r="O4" t="n">
-        <v>32593.54773220027</v>
+        <v>32593.54773220026</v>
       </c>
       <c r="P4" t="n">
         <v>32593.54773220027</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117320.8515890882</v>
+        <v>-118154.5158643345</v>
       </c>
       <c r="C6" t="n">
-        <v>13428.31841914385</v>
+        <v>12594.65414389744</v>
       </c>
       <c r="D6" t="n">
-        <v>13428.31841914383</v>
+        <v>12594.65414389741</v>
       </c>
       <c r="E6" t="n">
-        <v>47055.91841914388</v>
+        <v>46222.25414389741</v>
       </c>
       <c r="F6" t="n">
-        <v>47055.9184191439</v>
+        <v>46222.25414389743</v>
       </c>
       <c r="G6" t="n">
-        <v>47055.91841914388</v>
+        <v>46222.25414389744</v>
       </c>
       <c r="H6" t="n">
-        <v>47055.91841914387</v>
+        <v>46222.25414389744</v>
       </c>
       <c r="I6" t="n">
-        <v>17787.68981002131</v>
+        <v>17110.16095062727</v>
       </c>
       <c r="J6" t="n">
-        <v>-20511.54858489269</v>
+        <v>-21345.21286013908</v>
       </c>
       <c r="K6" t="n">
-        <v>47055.9184191439</v>
+        <v>46222.25414389744</v>
       </c>
       <c r="L6" t="n">
-        <v>47055.91841914385</v>
+        <v>46222.25414389743</v>
       </c>
       <c r="M6" t="n">
-        <v>47055.91841914385</v>
+        <v>46222.25414389744</v>
       </c>
       <c r="N6" t="n">
-        <v>47055.91841914388</v>
+        <v>46222.25414389743</v>
       </c>
       <c r="O6" t="n">
-        <v>47055.91841914387</v>
+        <v>46222.25414389744</v>
       </c>
       <c r="P6" t="n">
-        <v>47055.91841914388</v>
+        <v>46222.25414389747</v>
       </c>
     </row>
   </sheetData>
@@ -26810,7 +26810,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
         <v>390.1527797502169</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.9107906198086</v>
+        <v>131.9107906198087</v>
       </c>
       <c r="J4" t="n">
-        <v>258.2419891304083</v>
+        <v>258.2419891304082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M2" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N2" t="n">
-        <v>49.98397370445868</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>186.5450011173478</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M3" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>381.3054633018259</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>156.1134623456949</v>
       </c>
       <c r="L4" t="n">
-        <v>262.522323515213</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M4" t="n">
         <v>292.1859155964578</v>
@@ -34938,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L5" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>142.4174431947571</v>
       </c>
       <c r="N5" t="n">
-        <v>117.6360295908604</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>381.3054633018259</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L6" t="n">
+        <v>186.5450011173479</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M6" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>14.22479737900053</v>
+        <v>14.22479737900079</v>
       </c>
       <c r="K7" t="n">
         <v>156.1134623456949</v>
@@ -35108,7 +35108,7 @@
         <v>283.67553777197</v>
       </c>
       <c r="O7" t="n">
-        <v>262.1824346732063</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P7" t="n">
         <v>207.7529699491034</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35181,22 +35181,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>390.1527797502169</v>
+        <v>9.017664927120396</v>
       </c>
       <c r="N8" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O8" t="n">
-        <v>183.3837519720954</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M9" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N9" t="n">
-        <v>390.1527797502169</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="O9" t="n">
-        <v>381.3054633018259</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>14.22479737900079</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K10" t="n">
         <v>156.1134623456949</v>
@@ -35412,13 +35412,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="L11" t="n">
-        <v>183.3837519720955</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35427,13 +35427,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,10 +35494,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L12" t="n">
-        <v>149.7704685226696</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M12" t="n">
-        <v>390.1527797502169</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35576,7 +35576,7 @@
         <v>262.5223235152127</v>
       </c>
       <c r="M13" t="n">
-        <v>292.1859155964581</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N13" t="n">
         <v>283.67553777197</v>
@@ -35588,7 +35588,7 @@
         <v>207.7529699491034</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.18992909344529</v>
+        <v>66.18992909344536</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>183.3837519720954</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L15" t="n">
-        <v>390.1527797502169</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>179.6285688889625</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>183.3837519720955</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="M17" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L18" t="n">
-        <v>390.1527797502169</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M18" t="n">
-        <v>179.6285688889625</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>390.1527797502169</v>
+        <v>49.98397370445868</v>
       </c>
       <c r="N20" t="n">
         <v>390.1527797502169</v>
@@ -36138,13 +36138,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="P20" t="n">
-        <v>333.4227222961023</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36211,13 +36211,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>186.5450011173479</v>
+      </c>
+      <c r="P21" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>186.5450011173479</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
@@ -36360,22 +36360,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>400.9092955204426</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="O23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.70163254908636</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>29.85810036629282</v>
@@ -36597,19 +36597,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
+        <v>390.1527797502169</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>142.4174431947572</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>390.1527797502169</v>
       </c>
       <c r="P26" t="n">
         <v>390.1527797502169</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>344.5309307071475</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L27" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M27" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M30" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L32" t="n">
+        <v>183.3837519720955</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M32" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>333.4227222961023</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>216.4031014836407</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M33" t="n">
-        <v>390.1527797502169</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="N33" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,22 +37314,22 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M35" t="n">
-        <v>76.66972081352203</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>183.3837519720954</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>149.7704685226696</v>
-      </c>
       <c r="N36" t="n">
+        <v>216.4031014836408</v>
+      </c>
+      <c r="O36" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
       <c r="P36" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>142.4174431947572</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37554,10 +37554,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
+        <v>9.017664927120396</v>
+      </c>
+      <c r="O38" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>390.1527797502169</v>
@@ -37627,25 +37627,25 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N39" t="n">
-        <v>186.5450011173479</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M41" t="n">
-        <v>76.66972081352215</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>390.1527797502169</v>
+        <v>142.4174431947571</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37864,22 +37864,22 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L42" t="n">
-        <v>216.4031014836408</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P42" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>117.6360295908604</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N44" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O44" t="n">
-        <v>183.3837519720955</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L45" t="n">
+        <v>216.4031014836408</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M45" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>179.6285688889625</v>
-      </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
